--- a/fuentes/contenidos/grado06/guion14/Escaleta_ CS_06_14_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion14/Escaleta_ CS_06_14_CO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16545" windowHeight="6660"/>
@@ -1083,23 +1083,8 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1111,6 +1096,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,8 +1137,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P11" sqref="P5:P11"/>
     </sheetView>
   </sheetViews>
@@ -1485,94 +1485,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="50" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="68" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="65"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="27" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="69"/>
     </row>
     <row r="3" spans="1:21" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="50" t="s">
         <v>255</v>
       </c>
       <c r="P3" s="23" t="s">
@@ -4667,6 +4667,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4681,12 +4687,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion14/Escaleta_ CS_06_14_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion14/Escaleta_ CS_06_14_CO.xlsx
@@ -795,7 +795,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +864,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -986,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1086,6 +1094,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1096,12 +1122,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,17 +1157,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1455,9 +1466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P5:P11"/>
+      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,94 +1496,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="55" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="70" t="s">
+      <c r="T1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="53" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="27" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="69"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="54"/>
     </row>
     <row r="3" spans="1:21" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2187,7 +2198,7 @@
       <c r="J13" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="72" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -2478,7 +2489,7 @@
       <c r="J18" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="72" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -3050,7 +3061,7 @@
       <c r="J28" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="72" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="6" t="s">
@@ -3518,7 +3529,7 @@
       <c r="J36" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="72" t="s">
         <v>20</v>
       </c>
       <c r="L36" s="6" t="s">
@@ -3683,7 +3694,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="15"/>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="72" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="6" t="s">
@@ -3726,7 +3737,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="15"/>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="72" t="s">
         <v>20</v>
       </c>
       <c r="L40" s="6" t="s">
@@ -3779,7 +3790,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="15"/>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="72" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="6" t="s">
@@ -4667,12 +4678,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4687,6 +4692,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion14/Escaleta_ CS_06_14_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion14/Escaleta_ CS_06_14_CO.xlsx
@@ -795,7 +795,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,12 +827,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.5"/>
-      <color rgb="FF213457"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -847,13 +841,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -862,14 +849,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -994,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1021,15 +1014,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1051,66 +1035,91 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1118,10 +1127,16 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,8 +1172,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1466,209 +1490,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="31" style="36" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="37" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29" style="32" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="34" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="62.5703125" style="31" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
     <col min="15" max="15" width="23.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="34" customWidth="1"/>
-    <col min="18" max="18" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="34" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="28" customWidth="1"/>
+    <col min="18" max="18" width="23" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:21" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="51" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="86" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="27" t="s">
+    <row r="2" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" spans="1:21" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="25">
         <v>1</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="K3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="50" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="P3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="24">
+      <c r="P3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="21">
         <v>6</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="21" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="53">
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="37" t="s">
         <v>135</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1700,32 +1724,32 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="53">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="37" t="s">
         <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1757,34 +1781,34 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="53">
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="37" t="s">
         <v>142</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1816,34 +1840,34 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="53">
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="37" t="s">
         <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1875,34 +1899,34 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="53">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="64" t="s">
         <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1934,34 +1958,34 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="53">
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="37" t="s">
         <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1993,34 +2017,34 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="53">
         <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="63" t="s">
         <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -2052,34 +2076,34 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="53">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="37" t="s">
         <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2111,34 +2135,34 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="53">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="64" t="s">
         <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -2170,35 +2194,35 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="46" t="s">
+      <c r="F13" s="51"/>
+      <c r="G13" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="53">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="39" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -2221,7 +2245,7 @@
       <c r="S13" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T13" s="45" t="s">
+      <c r="T13" s="35" t="s">
         <v>169</v>
       </c>
       <c r="U13" s="10" t="s">
@@ -2229,32 +2253,32 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="53">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="64" t="s">
         <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -2286,32 +2310,32 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="46" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="53">
         <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="64" t="s">
         <v>178</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -2343,34 +2367,34 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="53">
         <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="65" t="s">
         <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -2402,34 +2426,34 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="53">
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="37" t="s">
         <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -2461,35 +2485,35 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="51"/>
+      <c r="G18" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="53">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="39" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -2512,7 +2536,7 @@
       <c r="S18" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T18" s="45" t="s">
+      <c r="T18" s="35" t="s">
         <v>186</v>
       </c>
       <c r="U18" s="10" t="s">
@@ -2520,30 +2544,30 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="15" t="s">
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="53">
         <v>17</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="37" t="s">
         <v>188</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -2575,26 +2599,26 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="51"/>
+      <c r="G20" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="53">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -2632,26 +2656,26 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="51"/>
+      <c r="G21" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="53">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -2689,28 +2713,28 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="53">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -2748,32 +2772,32 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="51"/>
+      <c r="G23" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="53">
         <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="64" t="s">
         <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -2805,32 +2829,32 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="46" t="s">
+      <c r="F24" s="51"/>
+      <c r="G24" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="53">
         <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="63" t="s">
         <v>203</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -2862,32 +2886,32 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="46" t="s">
+      <c r="F25" s="51"/>
+      <c r="G25" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="53">
         <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="37" t="s">
         <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -2919,32 +2943,32 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="46" t="s">
+      <c r="F26" s="51"/>
+      <c r="G26" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="53">
         <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="63" t="s">
         <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -2976,32 +3000,32 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="51"/>
+      <c r="G27" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="53">
         <v>25</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -3033,35 +3057,35 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="46" t="s">
+      <c r="F28" s="51"/>
+      <c r="G28" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="53">
         <v>26</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="46" t="s">
+      <c r="J28" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="39" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="6" t="s">
@@ -3084,7 +3108,7 @@
       <c r="S28" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T28" s="45" t="s">
+      <c r="T28" s="35" t="s">
         <v>215</v>
       </c>
       <c r="U28" s="10" t="s">
@@ -3092,34 +3116,34 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="53">
         <v>27</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="49" t="s">
+      <c r="J29" s="66" t="s">
         <v>219</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -3151,34 +3175,34 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="53">
         <v>28</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="64" t="s">
         <v>221</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -3210,34 +3234,34 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="53">
         <v>29</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="46" t="s">
+      <c r="J31" s="64" t="s">
         <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -3269,34 +3293,34 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="53">
         <v>30</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="46" t="s">
+      <c r="J32" s="48" t="s">
         <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -3328,32 +3352,32 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="46" t="s">
+      <c r="F33" s="51"/>
+      <c r="G33" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="53">
         <v>31</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="64" t="s">
         <v>229</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -3385,32 +3409,32 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="46" t="s">
+      <c r="F34" s="51"/>
+      <c r="G34" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="53">
         <v>32</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="46" t="s">
+      <c r="J34" s="48" t="s">
         <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
@@ -3442,32 +3466,32 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="H35" s="29">
+      <c r="F35" s="51"/>
+      <c r="G35" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" s="53">
         <v>33</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="49" t="s">
+      <c r="J35" s="66" t="s">
         <v>234</v>
       </c>
       <c r="K35" s="7" t="s">
@@ -3499,37 +3523,37 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="53">
         <v>34</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="K36" s="72" t="s">
+      <c r="K36" s="39" t="s">
         <v>20</v>
       </c>
       <c r="L36" s="6" t="s">
@@ -3552,7 +3576,7 @@
       <c r="S36" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T36" s="45" t="s">
+      <c r="T36" s="35" t="s">
         <v>254</v>
       </c>
       <c r="U36" s="10" t="s">
@@ -3560,30 +3584,30 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="38" t="s">
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="H37" s="44">
+      <c r="H37" s="59">
         <v>35</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="46" t="s">
+      <c r="J37" s="48" t="s">
         <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
@@ -3615,30 +3639,30 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="38" t="s">
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="H38" s="44">
+      <c r="H38" s="59">
         <v>36</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="46" t="s">
+      <c r="J38" s="48" t="s">
         <v>245</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -3670,31 +3694,31 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="38" t="s">
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="H39" s="44">
+      <c r="H39" s="59">
         <v>37</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="72" t="s">
+      <c r="J39" s="37"/>
+      <c r="K39" s="39" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="6" t="s">
@@ -3713,31 +3737,31 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="38" t="s">
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="H40" s="44">
+      <c r="H40" s="59">
         <v>38</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="72" t="s">
+      <c r="J40" s="37"/>
+      <c r="K40" s="39" t="s">
         <v>20</v>
       </c>
       <c r="L40" s="6" t="s">
@@ -3760,7 +3784,7 @@
       <c r="S40" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T40" s="45" t="s">
+      <c r="T40" s="35" t="s">
         <v>248</v>
       </c>
       <c r="U40" s="10" t="s">
@@ -3768,29 +3792,29 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="38" t="s">
+      <c r="D41" s="62"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="H41" s="44">
+      <c r="H41" s="59">
         <v>39</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="72" t="s">
+      <c r="J41" s="37"/>
+      <c r="K41" s="39" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="6" t="s">
@@ -3813,7 +3837,7 @@
       <c r="S41" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T41" s="45" t="s">
+      <c r="T41" s="35" t="s">
         <v>249</v>
       </c>
       <c r="U41" s="10" t="s">
@@ -3821,18 +3845,18 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="29"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="5"/>
       <c r="J42" s="15"/>
       <c r="K42" s="7"/>
@@ -3848,14 +3872,14 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="29"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
       <c r="I43" s="5"/>
       <c r="J43" s="15"/>
       <c r="K43" s="7"/>
@@ -3871,14 +3895,14 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="29"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="5"/>
       <c r="J44" s="15"/>
       <c r="K44" s="7"/>
@@ -3894,14 +3918,14 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="12"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="9"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="29"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="5"/>
       <c r="J45" s="15"/>
       <c r="K45" s="7"/>
@@ -3924,7 +3948,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="9"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="29"/>
+      <c r="H46" s="26"/>
       <c r="I46" s="5"/>
       <c r="J46" s="15"/>
       <c r="K46" s="7"/>
@@ -3947,7 +3971,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="9"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="29"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="5"/>
       <c r="J47" s="15"/>
       <c r="K47" s="7"/>
@@ -3970,7 +3994,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="9"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="29"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="5"/>
       <c r="J48" s="15"/>
       <c r="K48" s="7"/>
@@ -3993,7 +4017,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="9"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="29"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="5"/>
       <c r="J49" s="15"/>
       <c r="K49" s="7"/>
@@ -4016,7 +4040,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="9"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="29"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="5"/>
       <c r="J50" s="15"/>
       <c r="K50" s="7"/>
@@ -4039,7 +4063,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="9"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="29"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="5"/>
       <c r="J51" s="15"/>
       <c r="K51" s="7"/>
@@ -4062,7 +4086,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="9"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="29"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="5"/>
       <c r="J52" s="15"/>
       <c r="K52" s="7"/>
@@ -4085,7 +4109,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="9"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="29"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="5"/>
       <c r="J53" s="15"/>
       <c r="K53" s="7"/>
@@ -4108,7 +4132,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="9"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="29"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="5"/>
       <c r="J54" s="15"/>
       <c r="K54" s="7"/>
@@ -4131,7 +4155,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="9"/>
       <c r="G55" s="15"/>
-      <c r="H55" s="29"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="5"/>
       <c r="J55" s="15"/>
       <c r="K55" s="7"/>
@@ -4154,7 +4178,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="9"/>
       <c r="G56" s="15"/>
-      <c r="H56" s="29"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="5"/>
       <c r="J56" s="15"/>
       <c r="K56" s="7"/>
@@ -4177,7 +4201,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="9"/>
       <c r="G57" s="15"/>
-      <c r="H57" s="29"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="5"/>
       <c r="J57" s="15"/>
       <c r="K57" s="7"/>
@@ -4200,7 +4224,7 @@
       <c r="E58" s="12"/>
       <c r="F58" s="9"/>
       <c r="G58" s="15"/>
-      <c r="H58" s="29"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="5"/>
       <c r="J58" s="15"/>
       <c r="K58" s="7"/>
@@ -4223,7 +4247,7 @@
       <c r="E59" s="12"/>
       <c r="F59" s="9"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="29"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="5"/>
       <c r="J59" s="15"/>
       <c r="K59" s="7"/>
@@ -4246,7 +4270,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="9"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="29"/>
+      <c r="H60" s="26"/>
       <c r="I60" s="5"/>
       <c r="J60" s="15"/>
       <c r="K60" s="7"/>
@@ -4269,7 +4293,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="9"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="29"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="5"/>
       <c r="J61" s="15"/>
       <c r="K61" s="7"/>
@@ -4292,7 +4316,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="29"/>
+      <c r="H62" s="26"/>
       <c r="I62" s="5"/>
       <c r="J62" s="15"/>
       <c r="K62" s="7"/>
@@ -4315,7 +4339,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="9"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="29"/>
+      <c r="H63" s="26"/>
       <c r="I63" s="5"/>
       <c r="J63" s="15"/>
       <c r="K63" s="7"/>
@@ -4338,7 +4362,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="9"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="29"/>
+      <c r="H64" s="26"/>
       <c r="I64" s="5"/>
       <c r="J64" s="15"/>
       <c r="K64" s="7"/>
@@ -4361,7 +4385,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="9"/>
       <c r="G65" s="15"/>
-      <c r="H65" s="29"/>
+      <c r="H65" s="26"/>
       <c r="I65" s="5"/>
       <c r="J65" s="15"/>
       <c r="K65" s="7"/>
@@ -4384,7 +4408,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="9"/>
       <c r="G66" s="15"/>
-      <c r="H66" s="29"/>
+      <c r="H66" s="26"/>
       <c r="I66" s="5"/>
       <c r="J66" s="15"/>
       <c r="K66" s="7"/>
@@ -4407,7 +4431,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="9"/>
       <c r="G67" s="15"/>
-      <c r="H67" s="29"/>
+      <c r="H67" s="26"/>
       <c r="I67" s="5"/>
       <c r="J67" s="15"/>
       <c r="K67" s="7"/>
@@ -4430,7 +4454,7 @@
       <c r="E68" s="12"/>
       <c r="F68" s="9"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="29"/>
+      <c r="H68" s="26"/>
       <c r="I68" s="5"/>
       <c r="J68" s="15"/>
       <c r="K68" s="7"/>
@@ -4453,7 +4477,7 @@
       <c r="E69" s="12"/>
       <c r="F69" s="9"/>
       <c r="G69" s="15"/>
-      <c r="H69" s="29"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="5"/>
       <c r="J69" s="15"/>
       <c r="K69" s="7"/>
@@ -4476,7 +4500,7 @@
       <c r="E70" s="12"/>
       <c r="F70" s="9"/>
       <c r="G70" s="15"/>
-      <c r="H70" s="29"/>
+      <c r="H70" s="26"/>
       <c r="I70" s="5"/>
       <c r="J70" s="15"/>
       <c r="K70" s="7"/>
@@ -4678,6 +4702,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4692,12 +4722,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
